--- a/src/params/rssLinks.xlsx
+++ b/src/params/rssLinks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AubertSigouin-Lebel\Documents\Veille TC\src\params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AubertSigouin-Lebel\technocompetences\Recherche et Contenu - Documents\Veille TC\src\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C2FC30-1FFB-48B5-A7F5-EE9F4550FD7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="6_{CE72CE23-2A19-4E43-91A3-10CC98833678}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{8E66D8E4-BB99-406F-8190-4E3CBB353BFE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
   <si>
     <t>https://www.lapresse.ca/rss/2403.xml</t>
   </si>
@@ -1077,6 +1077,9 @@
   </si>
   <si>
     <t>https://news.google.com/rss/topics/CAAqIQgKIhtDQkFTRGdvSUwyMHZNREZ0ZHpFU0FtVnVLQUFQAQ?hl=en-US&amp;gl=US&amp;ceid=US%3Aen</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/search?q=r%C3%A9tention%20when%3A1d&amp;hl=fr-CA&amp;gl=CA&amp;ceid=CA%3Afr</t>
   </si>
 </sst>
 </file>
@@ -1491,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A351"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="D359" sqref="D359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2146,7 +2149,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>80</v>
@@ -2154,7 +2157,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>81</v>
@@ -2162,7 +2165,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>82</v>
@@ -2170,7 +2173,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>83</v>
@@ -2178,7 +2181,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>84</v>
@@ -2186,7 +2189,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>85</v>
@@ -2194,7 +2197,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>86</v>
@@ -2202,7 +2205,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>87</v>
@@ -2210,7 +2213,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>88</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>89</v>
@@ -2226,7 +2229,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>90</v>
@@ -2234,7 +2237,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>91</v>
@@ -2242,7 +2245,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>92</v>
@@ -2250,7 +2253,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>93</v>
@@ -2258,7 +2261,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>94</v>
@@ -2266,7 +2269,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>95</v>
@@ -2274,7 +2277,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>96</v>
@@ -2282,7 +2285,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>97</v>
@@ -2290,7 +2293,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>98</v>
@@ -2298,7 +2301,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>99</v>
@@ -2306,7 +2309,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>100</v>
@@ -2314,7 +2317,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>101</v>
@@ -2322,7 +2325,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>102</v>
@@ -2330,7 +2333,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>103</v>
@@ -2338,7 +2341,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>104</v>
@@ -2346,7 +2349,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>105</v>
@@ -2354,7 +2357,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>106</v>
@@ -2362,7 +2365,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>107</v>
@@ -2370,7 +2373,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>108</v>
@@ -2378,7 +2381,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>109</v>
@@ -2386,7 +2389,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>110</v>
@@ -2394,7 +2397,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>111</v>
@@ -2402,7 +2405,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>112</v>
@@ -2410,7 +2413,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>113</v>
@@ -2418,7 +2421,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>114</v>
@@ -2426,7 +2429,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>115</v>
@@ -2434,7 +2437,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>116</v>
@@ -2442,7 +2445,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>117</v>
@@ -2450,7 +2453,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>118</v>
@@ -2458,7 +2461,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>119</v>
@@ -2466,7 +2469,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>120</v>
@@ -2474,7 +2477,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>121</v>
@@ -2482,7 +2485,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>122</v>
@@ -2490,7 +2493,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>123</v>
@@ -2498,7 +2501,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>124</v>
@@ -2506,7 +2509,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>125</v>
@@ -2514,7 +2517,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>126</v>
@@ -2522,7 +2525,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>127</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>128</v>
@@ -2538,7 +2541,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>129</v>
@@ -2546,7 +2549,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>130</v>
@@ -2554,7 +2557,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>131</v>
@@ -2562,7 +2565,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>132</v>
@@ -2570,7 +2573,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>133</v>
@@ -2578,7 +2581,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>134</v>
@@ -2586,7 +2589,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>135</v>
@@ -2594,7 +2597,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>136</v>
@@ -2602,7 +2605,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>137</v>
@@ -2610,7 +2613,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>138</v>
@@ -2618,7 +2621,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>139</v>
@@ -2626,7 +2629,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>140</v>
@@ -2634,7 +2637,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>141</v>
@@ -2642,7 +2645,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>142</v>
@@ -2650,7 +2653,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>143</v>
@@ -2658,7 +2661,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>144</v>
@@ -2666,7 +2669,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>145</v>
@@ -2674,7 +2677,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>146</v>
@@ -2682,7 +2685,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>147</v>
@@ -2690,7 +2693,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>148</v>
@@ -2698,7 +2701,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>149</v>
@@ -2706,7 +2709,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>150</v>
@@ -2714,7 +2717,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>151</v>
@@ -2722,7 +2725,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>152</v>
@@ -2730,7 +2733,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>153</v>
@@ -2738,7 +2741,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>154</v>
@@ -2746,7 +2749,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>155</v>
@@ -2754,7 +2757,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>156</v>
@@ -2762,7 +2765,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>157</v>
@@ -2770,7 +2773,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>158</v>
@@ -2778,7 +2781,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>159</v>
@@ -2786,7 +2789,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>160</v>
@@ -2794,7 +2797,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>161</v>
@@ -2802,7 +2805,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>162</v>
@@ -2810,7 +2813,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>163</v>
@@ -2818,7 +2821,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>164</v>
@@ -2826,7 +2829,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>165</v>
@@ -2834,7 +2837,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>166</v>
@@ -2842,7 +2845,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>167</v>
@@ -2850,7 +2853,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>168</v>
@@ -2858,7 +2861,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>169</v>
@@ -2866,7 +2869,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>170</v>
@@ -2874,7 +2877,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>171</v>
@@ -2882,7 +2885,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>172</v>
@@ -2890,7 +2893,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>173</v>
@@ -2898,7 +2901,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>174</v>
@@ -2906,7 +2909,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>175</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>176</v>
@@ -2922,7 +2925,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>177</v>
@@ -2930,7 +2933,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>178</v>
@@ -2938,7 +2941,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>179</v>
@@ -2946,7 +2949,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>180</v>
@@ -2954,7 +2957,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>181</v>
@@ -2962,7 +2965,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>182</v>
@@ -2970,7 +2973,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>183</v>
@@ -2978,7 +2981,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>184</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>185</v>
@@ -2994,7 +2997,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>186</v>
@@ -3002,7 +3005,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>187</v>
@@ -3010,7 +3013,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>188</v>
@@ -3018,7 +3021,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>189</v>
@@ -3026,7 +3029,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>190</v>
@@ -3034,7 +3037,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>191</v>
@@ -3042,7 +3045,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>192</v>
@@ -3050,7 +3053,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>193</v>
@@ -3058,7 +3061,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>194</v>
@@ -3066,7 +3069,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>195</v>
@@ -3074,7 +3077,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>196</v>
@@ -3082,7 +3085,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>197</v>
@@ -3090,7 +3093,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>198</v>
@@ -3098,7 +3101,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>199</v>
@@ -3106,7 +3109,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>200</v>
@@ -3114,7 +3117,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>201</v>
@@ -3122,7 +3125,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>202</v>
@@ -3130,7 +3133,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>203</v>
@@ -3138,7 +3141,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>204</v>
@@ -3146,7 +3149,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>205</v>
@@ -3154,7 +3157,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>206</v>
@@ -3162,7 +3165,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>207</v>
@@ -3170,7 +3173,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>208</v>
@@ -3178,7 +3181,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>209</v>
@@ -3186,7 +3189,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>210</v>
@@ -3194,7 +3197,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>211</v>
@@ -3202,7 +3205,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>212</v>
@@ -3210,7 +3213,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>213</v>
@@ -3218,7 +3221,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>214</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>215</v>
@@ -3234,7 +3237,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>216</v>
@@ -3242,7 +3245,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>217</v>
@@ -3250,7 +3253,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>218</v>
@@ -3258,7 +3261,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>219</v>
@@ -3266,7 +3269,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>220</v>
@@ -3274,7 +3277,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>221</v>
@@ -3282,7 +3285,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>222</v>
@@ -3290,7 +3293,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>223</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>224</v>
@@ -3306,7 +3309,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>225</v>
@@ -3314,7 +3317,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>226</v>
@@ -3322,7 +3325,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>227</v>
@@ -3330,7 +3333,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>228</v>
@@ -3338,7 +3341,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>229</v>
@@ -3346,7 +3349,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>230</v>
@@ -3354,7 +3357,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>231</v>
@@ -3362,7 +3365,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>232</v>
@@ -3370,7 +3373,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>233</v>
@@ -3378,7 +3381,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>234</v>
@@ -3386,7 +3389,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>235</v>
@@ -3394,7 +3397,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>236</v>
@@ -3402,7 +3405,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>237</v>
@@ -3410,7 +3413,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>238</v>
@@ -3418,7 +3421,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>239</v>
@@ -3426,7 +3429,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>240</v>
@@ -3434,7 +3437,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>241</v>
@@ -3442,7 +3445,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>242</v>
@@ -3450,7 +3453,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>243</v>
@@ -3458,7 +3461,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>244</v>
@@ -3466,7 +3469,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>245</v>
@@ -3474,7 +3477,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>246</v>
@@ -3482,7 +3485,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>247</v>
@@ -3490,7 +3493,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>248</v>
@@ -3498,7 +3501,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>249</v>
@@ -3506,7 +3509,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>250</v>
@@ -3514,7 +3517,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>251</v>
@@ -3522,7 +3525,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>252</v>
@@ -3530,7 +3533,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>253</v>
@@ -3538,7 +3541,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>254</v>
@@ -3546,7 +3549,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>255</v>
@@ -3554,7 +3557,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>256</v>
@@ -3562,7 +3565,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>257</v>
@@ -3570,7 +3573,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>258</v>
@@ -3578,7 +3581,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>259</v>
@@ -3586,7 +3589,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>260</v>
@@ -3594,7 +3597,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>261</v>
@@ -3602,7 +3605,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>262</v>
@@ -3610,7 +3613,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>263</v>
@@ -3618,7 +3621,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>264</v>
@@ -3626,7 +3629,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>265</v>
@@ -3634,7 +3637,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>266</v>
@@ -3642,7 +3645,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>267</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>268</v>
@@ -3658,7 +3661,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>269</v>
@@ -3666,7 +3669,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>270</v>
@@ -3674,7 +3677,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>271</v>
@@ -3682,7 +3685,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>272</v>
@@ -3690,7 +3693,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>273</v>
@@ -3698,7 +3701,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>274</v>
@@ -3706,7 +3709,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>275</v>
@@ -3714,7 +3717,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>276</v>
@@ -3722,7 +3725,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>277</v>
@@ -3730,7 +3733,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>278</v>
@@ -3738,7 +3741,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>279</v>
@@ -3746,7 +3749,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>280</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>281</v>
@@ -3762,7 +3765,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>282</v>
@@ -3770,7 +3773,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>283</v>
@@ -3778,7 +3781,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>284</v>
@@ -3786,7 +3789,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>285</v>
@@ -3794,7 +3797,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>286</v>
@@ -3802,7 +3805,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>287</v>
@@ -3810,7 +3813,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>288</v>
@@ -3818,7 +3821,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B291" t="s">
         <v>289</v>
@@ -3826,7 +3829,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B292" t="s">
         <v>290</v>
@@ -3834,7 +3837,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B293" t="s">
         <v>292</v>
@@ -3842,7 +3845,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B294" t="s">
         <v>291</v>
@@ -3850,7 +3853,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B295" t="s">
         <v>293</v>
@@ -3858,7 +3861,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B296" t="s">
         <v>294</v>
@@ -3866,7 +3869,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B297" t="s">
         <v>295</v>
@@ -3874,7 +3877,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B298" t="s">
         <v>296</v>
@@ -3882,7 +3885,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B299" t="s">
         <v>297</v>
@@ -3890,7 +3893,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B300" t="s">
         <v>298</v>
@@ -3898,7 +3901,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B301" t="s">
         <v>299</v>
@@ -3906,7 +3909,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B302" t="s">
         <v>300</v>
@@ -3914,7 +3917,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B303" t="s">
         <v>301</v>
@@ -3922,7 +3925,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B304" t="s">
         <v>302</v>
@@ -3930,7 +3933,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B305" t="s">
         <v>303</v>
@@ -3938,7 +3941,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B306" t="s">
         <v>304</v>
@@ -3946,7 +3949,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B307" t="s">
         <v>305</v>
@@ -3954,7 +3957,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B308" t="s">
         <v>306</v>
@@ -3962,7 +3965,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B309" t="s">
         <v>307</v>
@@ -3970,7 +3973,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B310" t="s">
         <v>308</v>
@@ -3978,7 +3981,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B311" t="s">
         <v>309</v>
@@ -3986,7 +3989,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B312" t="s">
         <v>310</v>
@@ -3994,7 +3997,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B313" t="s">
         <v>311</v>
@@ -4002,7 +4005,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B314" t="s">
         <v>312</v>
@@ -4010,7 +4013,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B315" t="s">
         <v>313</v>
@@ -4018,7 +4021,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B316" t="s">
         <v>314</v>
@@ -4026,7 +4029,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B317" t="s">
         <v>315</v>
@@ -4034,7 +4037,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B318" t="s">
         <v>316</v>
@@ -4042,7 +4045,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B319" t="s">
         <v>317</v>
@@ -4050,7 +4053,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B320" t="s">
         <v>318</v>
@@ -4058,7 +4061,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B321" t="s">
         <v>319</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B322" t="s">
         <v>320</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B323" t="s">
         <v>321</v>
@@ -4082,7 +4085,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B324" t="s">
         <v>322</v>
@@ -4090,7 +4093,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B325" t="s">
         <v>323</v>
@@ -4098,7 +4101,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B326" t="s">
         <v>324</v>
@@ -4106,7 +4109,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B327" t="s">
         <v>325</v>
@@ -4114,7 +4117,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B328" t="s">
         <v>326</v>
@@ -4122,7 +4125,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B329" t="s">
         <v>327</v>
@@ -4130,7 +4133,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B330" t="s">
         <v>328</v>
@@ -4138,7 +4141,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B331" t="s">
         <v>329</v>
@@ -4146,7 +4149,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B332" t="s">
         <v>330</v>
@@ -4154,7 +4157,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B333" t="s">
         <v>331</v>
@@ -4162,7 +4165,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B334" t="s">
         <v>332</v>
@@ -4170,7 +4173,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B335" t="s">
         <v>333</v>
@@ -4178,7 +4181,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B336" t="s">
         <v>334</v>
@@ -4186,7 +4189,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B337" t="s">
         <v>335</v>
@@ -4194,7 +4197,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B338" t="s">
         <v>336</v>
@@ -4202,7 +4205,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B339" t="s">
         <v>337</v>
@@ -4210,7 +4213,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B340" t="s">
         <v>338</v>
@@ -4218,7 +4221,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>339</v>
@@ -4226,7 +4229,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B342" t="s">
         <v>340</v>
@@ -4234,7 +4237,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B343" t="s">
         <v>341</v>
@@ -4242,7 +4245,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B344" t="s">
         <v>342</v>
@@ -4250,7 +4253,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B345" t="s">
         <v>343</v>
@@ -4258,7 +4261,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B346" t="s">
         <v>344</v>
@@ -4266,7 +4269,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B347" t="s">
         <v>345</v>
@@ -4274,7 +4277,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B348" t="s">
         <v>346</v>
@@ -4282,7 +4285,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B349" t="s">
         <v>347</v>
@@ -4290,7 +4293,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B350" t="s">
         <v>348</v>
@@ -4298,10 +4301,18 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B351" t="s">
         <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
+        <v>353</v>
+      </c>
+      <c r="B352" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4602,12 +4613,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4616,7 +4621,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B616E4031BBA346BE5BBBE6B00C684C" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0da22571f80a816d3298b341fa86b9fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ecc1858-ddf2-4103-8e89-fd8c38eb311f" xmlns:ns3="26b2f6ad-8baa-40f2-a855-f814083a0856" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d4525f3f6379ee15d9744948118cb74" ns2:_="" ns3:_="">
     <xsd:import namespace="0ecc1858-ddf2-4103-8e89-fd8c38eb311f"/>
@@ -4813,24 +4818,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E604DF4-2DB8-4525-B467-94A4BF3DEDBC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="0ecc1858-ddf2-4103-8e89-fd8c38eb311f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="26b2f6ad-8baa-40f2-a855-f814083a0856"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B8CA7B1-B5AF-4825-B2DC-F291923FE6C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4838,7 +4832,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE06FC1-F14E-471F-A6AC-D937BB589172}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4855,4 +4849,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E604DF4-2DB8-4525-B467-94A4BF3DEDBC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0ecc1858-ddf2-4103-8e89-fd8c38eb311f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="26b2f6ad-8baa-40f2-a855-f814083a0856"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>